--- a/biology/Médecine/Triade_de_Lewis/Triade_de_Lewis.xlsx
+++ b/biology/Médecine/Triade_de_Lewis/Triade_de_Lewis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>La triade de Lewis (The triple response of Lewis en anglais), proposée par Sir Thomas Lewis (1881-1945) en 1927[1] pour expliquer la physiopathogénie des papules décelés dans l'urticaire, est l'apparition, après frottement de la peau d’une lésion tout à fait identique à celle de l’urticaire, reproduisant :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>La triade de Lewis (The triple response of Lewis en anglais), proposée par Sir Thomas Lewis (1881-1945) en 1927 pour expliquer la physiopathogénie des papules décelés dans l'urticaire, est l'apparition, après frottement de la peau d’une lésion tout à fait identique à celle de l’urticaire, reproduisant :
 une vasodilatation responsable de l’érythème (rougeur) clinique ;
 une accentuation de la perméabilité vasculaire aboutissant à l’œdème (gonflement) ;
 un réflexe d’axone conduisant à la dilatation artériolaire avoisinante donc à l'extension de l’érythème.</t>
